--- a/data/wpiintlstudentsmap2.xlsx
+++ b/data/wpiintlstudentsmap2.xlsx
@@ -1,16 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25518"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEB6BC5B-FDB8-4FEB-80A4-FC9453212FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epobrien\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="4770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$189</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="476">
   <si>
     <t>sname</t>
   </si>
@@ -665,9 +672,6 @@
     <t>Huang, Chen S.</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Huie, Yuen K.</t>
   </si>
   <si>
@@ -1422,9 +1426,6 @@
   </si>
   <si>
     <t>Yen, King Lau</t>
-  </si>
-  <si>
-    <t>Ynan, Z.</t>
   </si>
   <si>
     <t xml:space="preserve">Yrigoyen, Juan I. </t>
@@ -1466,8 +1467,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1811,16 +1812,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I190"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1849,7 +1850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1878,7 +1879,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1907,7 +1908,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1936,7 +1937,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1965,7 +1966,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1994,7 +1995,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -2052,7 +2053,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -2081,7 +2082,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -2110,7 +2111,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -2139,7 +2140,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2168,7 +2169,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -2197,7 +2198,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -2226,7 +2227,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -2255,7 +2256,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -2284,7 +2285,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -2313,7 +2314,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -2342,7 +2343,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -2371,7 +2372,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>74</v>
       </c>
@@ -2429,7 +2430,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -2458,7 +2459,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -2487,7 +2488,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -2516,7 +2517,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -2545,7 +2546,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>89</v>
       </c>
@@ -2574,7 +2575,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -2603,7 +2604,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>96</v>
       </c>
@@ -2661,7 +2662,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>99</v>
       </c>
@@ -2690,7 +2691,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -2719,7 +2720,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -2748,7 +2749,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -2777,7 +2778,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>109</v>
       </c>
@@ -2806,7 +2807,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>110</v>
       </c>
@@ -2835,7 +2836,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>113</v>
       </c>
@@ -2864,7 +2865,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>116</v>
       </c>
@@ -2893,7 +2894,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -2922,7 +2923,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>123</v>
       </c>
@@ -2951,7 +2952,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>127</v>
       </c>
@@ -2980,7 +2981,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>131</v>
       </c>
@@ -3009,7 +3010,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>132</v>
       </c>
@@ -3038,7 +3039,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>136</v>
       </c>
@@ -3067,7 +3068,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>139</v>
       </c>
@@ -3096,7 +3097,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>143</v>
       </c>
@@ -3125,7 +3126,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>146</v>
       </c>
@@ -3154,7 +3155,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>149</v>
       </c>
@@ -3183,7 +3184,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>150</v>
       </c>
@@ -3212,7 +3213,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>153</v>
       </c>
@@ -3241,7 +3242,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>155</v>
       </c>
@@ -3270,7 +3271,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>159</v>
       </c>
@@ -3299,7 +3300,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>163</v>
       </c>
@@ -3328,7 +3329,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>166</v>
       </c>
@@ -3357,7 +3358,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>169</v>
       </c>
@@ -3386,7 +3387,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>170</v>
       </c>
@@ -3415,7 +3416,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>171</v>
       </c>
@@ -3444,7 +3445,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>174</v>
       </c>
@@ -3473,7 +3474,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>177</v>
       </c>
@@ -3502,7 +3503,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>180</v>
       </c>
@@ -3531,7 +3532,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>181</v>
       </c>
@@ -3560,7 +3561,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>184</v>
       </c>
@@ -3589,7 +3590,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>185</v>
       </c>
@@ -3618,7 +3619,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>186</v>
       </c>
@@ -3647,7 +3648,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>189</v>
       </c>
@@ -3676,7 +3677,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>192</v>
       </c>
@@ -3705,7 +3706,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>196</v>
       </c>
@@ -3734,7 +3735,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>200</v>
       </c>
@@ -3763,7 +3764,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>203</v>
       </c>
@@ -3792,7 +3793,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>204</v>
       </c>
@@ -3821,7 +3822,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>208</v>
       </c>
@@ -3850,12 +3851,15 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>211</v>
       </c>
+      <c r="B71" t="s">
+        <v>84</v>
+      </c>
       <c r="C71" t="s">
-        <v>212</v>
+        <v>84</v>
       </c>
       <c r="F71" t="s">
         <v>84</v>
@@ -3870,15 +3874,15 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>212</v>
+      </c>
+      <c r="B72" t="s">
         <v>213</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
         <v>214</v>
-      </c>
-      <c r="C72" t="s">
-        <v>215</v>
       </c>
       <c r="D72">
         <v>21.913965000000001</v>
@@ -3887,7 +3891,7 @@
         <v>95.956222999999994</v>
       </c>
       <c r="F72" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G72">
         <v>16.8</v>
@@ -3899,9 +3903,9 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B73" t="s">
         <v>56</v>
@@ -3928,9 +3932,9 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B74" t="s">
         <v>18</v>
@@ -3957,9 +3961,9 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B75" t="s">
         <v>129</v>
@@ -3986,9 +3990,9 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B76" t="s">
         <v>78</v>
@@ -4015,15 +4019,15 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" t="s">
         <v>221</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>222</v>
-      </c>
-      <c r="C77" t="s">
-        <v>223</v>
       </c>
       <c r="D77">
         <v>38.963745000000003</v>
@@ -4032,7 +4036,7 @@
         <v>35.243321999999999</v>
       </c>
       <c r="F77" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G77">
         <v>41.012999999999998</v>
@@ -4044,9 +4048,9 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B78" t="s">
         <v>22</v>
@@ -4073,9 +4077,9 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B79" t="s">
         <v>22</v>
@@ -4102,9 +4106,9 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B80" t="s">
         <v>22</v>
@@ -4131,12 +4135,12 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>227</v>
+      </c>
+      <c r="B81" t="s">
         <v>228</v>
-      </c>
-      <c r="B81" t="s">
-        <v>229</v>
       </c>
       <c r="C81" t="s">
         <v>79</v>
@@ -4148,7 +4152,7 @@
         <v>78.962879999999998</v>
       </c>
       <c r="F81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G81">
         <v>17.691389999999998</v>
@@ -4160,15 +4164,15 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>230</v>
+      </c>
+      <c r="B82" t="s">
         <v>231</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
         <v>232</v>
-      </c>
-      <c r="C82" t="s">
-        <v>233</v>
       </c>
       <c r="D82">
         <v>35.907756999999997</v>
@@ -4177,7 +4181,7 @@
         <v>127.76692199999999</v>
       </c>
       <c r="F82" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G82">
         <v>37.388888999999999</v>
@@ -4189,12 +4193,12 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>234</v>
+      </c>
+      <c r="B83" t="s">
         <v>235</v>
-      </c>
-      <c r="B83" t="s">
-        <v>236</v>
       </c>
       <c r="C83" t="s">
         <v>161</v>
@@ -4206,7 +4210,7 @@
         <v>10.451525999999999</v>
       </c>
       <c r="F83" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G83">
         <v>52.636699999999998</v>
@@ -4218,12 +4222,12 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C84" t="s">
         <v>79</v>
@@ -4235,7 +4239,7 @@
         <v>78.962879999999998</v>
       </c>
       <c r="F84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G84">
         <v>17.691389999999998</v>
@@ -4247,12 +4251,12 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>238</v>
+      </c>
+      <c r="B85" t="s">
         <v>239</v>
-      </c>
-      <c r="B85" t="s">
-        <v>240</v>
       </c>
       <c r="C85" t="s">
         <v>36</v>
@@ -4264,7 +4268,7 @@
         <v>34.851612000000003</v>
       </c>
       <c r="F85" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G85">
         <v>32.817284999999998</v>
@@ -4276,15 +4280,15 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>241</v>
+      </c>
+      <c r="B86" t="s">
         <v>242</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>243</v>
-      </c>
-      <c r="C86" t="s">
-        <v>244</v>
       </c>
       <c r="D86">
         <v>36.204824000000002</v>
@@ -4293,7 +4297,7 @@
         <v>138.25292400000001</v>
       </c>
       <c r="F86" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G86">
         <v>35.689500000000002</v>
@@ -4305,15 +4309,15 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>245</v>
+      </c>
+      <c r="B87" t="s">
         <v>246</v>
       </c>
-      <c r="B87" t="s">
-        <v>247</v>
-      </c>
       <c r="C87" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D87">
         <v>36.204824000000002</v>
@@ -4322,7 +4326,7 @@
         <v>138.25292400000001</v>
       </c>
       <c r="F87" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G87">
         <v>34.691299999999998</v>
@@ -4334,9 +4338,9 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B88" t="s">
         <v>103</v>
@@ -4363,12 +4367,12 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>249</v>
+      </c>
+      <c r="B89" t="s">
         <v>250</v>
-      </c>
-      <c r="B89" t="s">
-        <v>251</v>
       </c>
       <c r="C89" t="s">
         <v>15</v>
@@ -4380,7 +4384,7 @@
         <v>-77.781166999999996</v>
       </c>
       <c r="F89" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G89">
         <v>23.038766299999999</v>
@@ -4392,12 +4396,12 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>252</v>
+      </c>
+      <c r="B90" t="s">
         <v>253</v>
-      </c>
-      <c r="B90" t="s">
-        <v>254</v>
       </c>
       <c r="C90" t="s">
         <v>84</v>
@@ -4409,7 +4413,7 @@
         <v>104.195397</v>
       </c>
       <c r="F90" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G90">
         <v>22.533332999999999</v>
@@ -4421,12 +4425,12 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>255</v>
+      </c>
+      <c r="B91" t="s">
         <v>256</v>
-      </c>
-      <c r="B91" t="s">
-        <v>257</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -4438,7 +4442,7 @@
         <v>18.643501000000001</v>
       </c>
       <c r="F91" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G91">
         <v>56.2</v>
@@ -4450,9 +4454,9 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B92" t="s">
         <v>97</v>
@@ -4479,15 +4483,15 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>259</v>
+      </c>
+      <c r="B93" t="s">
         <v>260</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>261</v>
-      </c>
-      <c r="C93" t="s">
-        <v>262</v>
       </c>
       <c r="D93">
         <v>15.870032</v>
@@ -4496,7 +4500,7 @@
         <v>100.992541</v>
       </c>
       <c r="F93" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G93">
         <v>13.7563</v>
@@ -4508,15 +4512,15 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>263</v>
+      </c>
+      <c r="B94" t="s">
         <v>264</v>
       </c>
-      <c r="B94" t="s">
-        <v>265</v>
-      </c>
       <c r="C94" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D94">
         <v>36.204824000000002</v>
@@ -4525,7 +4529,7 @@
         <v>138.25292400000001</v>
       </c>
       <c r="F94" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G94">
         <v>35.320026300000002</v>
@@ -4537,12 +4541,12 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>266</v>
+      </c>
+      <c r="B95" t="s">
         <v>267</v>
-      </c>
-      <c r="B95" t="s">
-        <v>268</v>
       </c>
       <c r="C95" t="s">
         <v>84</v>
@@ -4554,7 +4558,7 @@
         <v>104.195397</v>
       </c>
       <c r="F95" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G95">
         <v>41.8354</v>
@@ -4566,12 +4570,12 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>269</v>
+      </c>
+      <c r="B96" t="s">
         <v>270</v>
-      </c>
-      <c r="B96" t="s">
-        <v>271</v>
       </c>
       <c r="C96" t="s">
         <v>84</v>
@@ -4583,7 +4587,7 @@
         <v>104.195397</v>
       </c>
       <c r="F96" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G96">
         <v>26.076111000000001</v>
@@ -4595,12 +4599,12 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>272</v>
+      </c>
+      <c r="B97" t="s">
         <v>273</v>
-      </c>
-      <c r="B97" t="s">
-        <v>274</v>
       </c>
       <c r="C97" t="s">
         <v>84</v>
@@ -4612,7 +4616,7 @@
         <v>104.195397</v>
       </c>
       <c r="F97" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G97">
         <v>36.668599999999998</v>
@@ -4624,12 +4628,12 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>275</v>
+      </c>
+      <c r="B98" t="s">
         <v>276</v>
-      </c>
-      <c r="B98" t="s">
-        <v>277</v>
       </c>
       <c r="C98" t="s">
         <v>23</v>
@@ -4641,7 +4645,7 @@
         <v>-106.346771</v>
       </c>
       <c r="F98" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G98">
         <v>45.751548</v>
@@ -4653,12 +4657,12 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B99" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C99" t="s">
         <v>23</v>
@@ -4670,7 +4674,7 @@
         <v>-106.346771</v>
       </c>
       <c r="F99" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G99">
         <v>45.751548</v>
@@ -4682,9 +4686,9 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B100" t="s">
         <v>140</v>
@@ -4711,15 +4715,15 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>280</v>
+      </c>
+      <c r="B101" t="s">
         <v>281</v>
       </c>
-      <c r="B101" t="s">
-        <v>282</v>
-      </c>
       <c r="C101" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D101">
         <v>36.204824000000002</v>
@@ -4728,7 +4732,7 @@
         <v>138.25292400000001</v>
       </c>
       <c r="F101" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G101">
         <v>35.689500000000002</v>
@@ -4740,15 +4744,15 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>282</v>
+      </c>
+      <c r="B102" t="s">
         <v>283</v>
       </c>
-      <c r="B102" t="s">
-        <v>284</v>
-      </c>
       <c r="C102" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D102">
         <v>36.204824000000002</v>
@@ -4757,7 +4761,7 @@
         <v>138.25292400000001</v>
       </c>
       <c r="F102" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G102">
         <v>35.689500000000002</v>
@@ -4769,12 +4773,12 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>284</v>
+      </c>
+      <c r="B103" t="s">
         <v>285</v>
-      </c>
-      <c r="B103" t="s">
-        <v>286</v>
       </c>
       <c r="C103" t="s">
         <v>23</v>
@@ -4786,7 +4790,7 @@
         <v>-106.346771</v>
       </c>
       <c r="F103" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G103">
         <v>45.279600000000002</v>
@@ -4798,12 +4802,12 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>287</v>
+      </c>
+      <c r="B104" t="s">
         <v>288</v>
-      </c>
-      <c r="B104" t="s">
-        <v>289</v>
       </c>
       <c r="C104" t="s">
         <v>47</v>
@@ -4827,12 +4831,12 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>289</v>
+      </c>
+      <c r="B105" t="s">
         <v>290</v>
-      </c>
-      <c r="B105" t="s">
-        <v>291</v>
       </c>
       <c r="C105" t="s">
         <v>84</v>
@@ -4844,7 +4848,7 @@
         <v>104.195397</v>
       </c>
       <c r="F105" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G105">
         <v>39.085099999999997</v>
@@ -4856,9 +4860,9 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B106" t="s">
         <v>151</v>
@@ -4885,9 +4889,9 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B107" t="s">
         <v>103</v>
@@ -4914,15 +4918,15 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B108" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C108" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D108">
         <v>36.204824000000002</v>
@@ -4931,7 +4935,7 @@
         <v>138.25292400000001</v>
       </c>
       <c r="F108" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G108">
         <v>35.689500000000002</v>
@@ -4943,15 +4947,15 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>295</v>
+      </c>
+      <c r="B109" t="s">
         <v>296</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>297</v>
-      </c>
-      <c r="C109" t="s">
-        <v>298</v>
       </c>
       <c r="D109">
         <v>53.412909999999997</v>
@@ -4960,7 +4964,7 @@
         <v>-8.2438900000000004</v>
       </c>
       <c r="F109" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G109">
         <v>53.456200000000003</v>
@@ -4972,15 +4976,15 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>299</v>
+      </c>
+      <c r="B110" t="s">
         <v>300</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>301</v>
-      </c>
-      <c r="C110" t="s">
-        <v>302</v>
       </c>
       <c r="D110">
         <v>41.608635</v>
@@ -4989,7 +4993,7 @@
         <v>21.745274999999999</v>
       </c>
       <c r="F110" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G110">
         <v>41.608635</v>
@@ -5001,15 +5005,15 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>302</v>
+      </c>
+      <c r="B111" t="s">
         <v>303</v>
       </c>
-      <c r="B111" t="s">
-        <v>304</v>
-      </c>
       <c r="C111" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D111">
         <v>38.963745000000003</v>
@@ -5018,7 +5022,7 @@
         <v>35.243321999999999</v>
       </c>
       <c r="F111" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G111">
         <v>39.75</v>
@@ -5030,9 +5034,9 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B112" t="s">
         <v>79</v>
@@ -5059,12 +5063,12 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>306</v>
+      </c>
+      <c r="B113" t="s">
         <v>307</v>
-      </c>
-      <c r="B113" t="s">
-        <v>308</v>
       </c>
       <c r="C113" t="s">
         <v>23</v>
@@ -5076,7 +5080,7 @@
         <v>-106.346771</v>
       </c>
       <c r="F113" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G113">
         <v>51.253799999999998</v>
@@ -5088,12 +5092,12 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>309</v>
+      </c>
+      <c r="B114" t="s">
         <v>310</v>
-      </c>
-      <c r="B114" t="s">
-        <v>311</v>
       </c>
       <c r="C114" t="s">
         <v>129</v>
@@ -5105,7 +5109,7 @@
         <v>-51.925280000000001</v>
       </c>
       <c r="F114" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G114">
         <v>-25.428356300000001</v>
@@ -5117,12 +5121,12 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>312</v>
+      </c>
+      <c r="B115" t="s">
         <v>313</v>
-      </c>
-      <c r="B115" t="s">
-        <v>314</v>
       </c>
       <c r="C115" t="s">
         <v>23</v>
@@ -5134,7 +5138,7 @@
         <v>-106.346771</v>
       </c>
       <c r="F115" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G115">
         <v>49.899444000000003</v>
@@ -5146,9 +5150,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B116" t="s">
         <v>46</v>
@@ -5175,12 +5179,12 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>316</v>
+      </c>
+      <c r="B117" t="s">
         <v>317</v>
-      </c>
-      <c r="B117" t="s">
-        <v>318</v>
       </c>
       <c r="C117" t="s">
         <v>141</v>
@@ -5204,9 +5208,9 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B118" t="s">
         <v>206</v>
@@ -5233,12 +5237,12 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>319</v>
+      </c>
+      <c r="B119" t="s">
         <v>320</v>
-      </c>
-      <c r="B119" t="s">
-        <v>321</v>
       </c>
       <c r="C119" t="s">
         <v>134</v>
@@ -5250,7 +5254,7 @@
         <v>-66.590148999999997</v>
       </c>
       <c r="F119" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G119">
         <v>18.201111000000001</v>
@@ -5262,15 +5266,15 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>322</v>
+      </c>
+      <c r="B120" t="s">
         <v>323</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>324</v>
-      </c>
-      <c r="C120" t="s">
-        <v>325</v>
       </c>
       <c r="D120">
         <v>23.634501</v>
@@ -5279,7 +5283,7 @@
         <v>-102.552784</v>
       </c>
       <c r="F120" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G120">
         <v>53.456200000000003</v>
@@ -5291,9 +5295,9 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B121" t="s">
         <v>128</v>
@@ -5320,15 +5324,15 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>327</v>
+      </c>
+      <c r="B122" t="s">
         <v>328</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>329</v>
-      </c>
-      <c r="C122" t="s">
-        <v>330</v>
       </c>
       <c r="D122">
         <v>40.463667000000001</v>
@@ -5337,7 +5341,7 @@
         <v>-3.7492200000000002</v>
       </c>
       <c r="F122" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G122">
         <v>43.365000000000002</v>
@@ -5349,12 +5353,12 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>331</v>
+      </c>
+      <c r="B123" t="s">
         <v>332</v>
-      </c>
-      <c r="B123" t="s">
-        <v>333</v>
       </c>
       <c r="C123" t="s">
         <v>20</v>
@@ -5366,7 +5370,7 @@
         <v>-74.297332999999995</v>
       </c>
       <c r="F123" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G123">
         <v>4.5980999999999996</v>
@@ -5378,12 +5382,12 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>334</v>
+      </c>
+      <c r="B124" t="s">
         <v>335</v>
-      </c>
-      <c r="B124" t="s">
-        <v>336</v>
       </c>
       <c r="C124" t="s">
         <v>23</v>
@@ -5395,7 +5399,7 @@
         <v>-106.346771</v>
       </c>
       <c r="F124" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G124">
         <v>46.138086899999998</v>
@@ -5407,12 +5411,12 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>337</v>
+      </c>
+      <c r="B125" t="s">
         <v>338</v>
-      </c>
-      <c r="B125" t="s">
-        <v>339</v>
       </c>
       <c r="C125" t="s">
         <v>23</v>
@@ -5424,7 +5428,7 @@
         <v>-106.346771</v>
       </c>
       <c r="F125" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G125">
         <v>49.899444000000003</v>
@@ -5436,12 +5440,12 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B126" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C126" t="s">
         <v>23</v>
@@ -5453,7 +5457,7 @@
         <v>-106.346771</v>
       </c>
       <c r="F126" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G126">
         <v>49.899444000000003</v>
@@ -5465,12 +5469,12 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>340</v>
+      </c>
+      <c r="B127" t="s">
         <v>341</v>
-      </c>
-      <c r="B127" t="s">
-        <v>342</v>
       </c>
       <c r="C127" t="s">
         <v>23</v>
@@ -5482,7 +5486,7 @@
         <v>-106.346771</v>
       </c>
       <c r="F127" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G127">
         <v>45.690283999999998</v>
@@ -5494,12 +5498,12 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>343</v>
+      </c>
+      <c r="B128" t="s">
         <v>344</v>
-      </c>
-      <c r="B128" t="s">
-        <v>345</v>
       </c>
       <c r="C128" t="s">
         <v>15</v>
@@ -5511,7 +5515,7 @@
         <v>-77.781166999999996</v>
       </c>
       <c r="F128" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G128">
         <v>21.383889</v>
@@ -5523,12 +5527,12 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>346</v>
+      </c>
+      <c r="B129" t="s">
         <v>347</v>
-      </c>
-      <c r="B129" t="s">
-        <v>348</v>
       </c>
       <c r="C129" t="s">
         <v>134</v>
@@ -5540,7 +5544,7 @@
         <v>-66.590148999999997</v>
       </c>
       <c r="F129" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G129">
         <v>18.451522000000001</v>
@@ -5552,12 +5556,12 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>349</v>
+      </c>
+      <c r="B130" t="s">
         <v>350</v>
-      </c>
-      <c r="B130" t="s">
-        <v>351</v>
       </c>
       <c r="C130" t="s">
         <v>15</v>
@@ -5569,7 +5573,7 @@
         <v>-77.781166999999996</v>
       </c>
       <c r="F130" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G130">
         <v>20.136666999999999</v>
@@ -5581,15 +5585,15 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>352</v>
+      </c>
+      <c r="B131" t="s">
         <v>353</v>
       </c>
-      <c r="B131" t="s">
-        <v>354</v>
-      </c>
       <c r="C131" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D131">
         <v>23.634501</v>
@@ -5598,7 +5602,7 @@
         <v>-102.552784</v>
       </c>
       <c r="F131" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G131">
         <v>21.282078800000001</v>
@@ -5610,15 +5614,15 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>355</v>
+      </c>
+      <c r="B132" t="s">
         <v>356</v>
       </c>
-      <c r="B132" t="s">
-        <v>357</v>
-      </c>
       <c r="C132" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D132">
         <v>23.634501</v>
@@ -5627,7 +5631,7 @@
         <v>-102.552784</v>
       </c>
       <c r="F132" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G132">
         <v>20.9677756</v>
@@ -5639,9 +5643,9 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B133" t="s">
         <v>56</v>
@@ -5668,15 +5672,15 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>359</v>
+      </c>
+      <c r="B134" t="s">
         <v>360</v>
       </c>
-      <c r="B134" t="s">
-        <v>361</v>
-      </c>
       <c r="C134" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D134">
         <v>23.634501</v>
@@ -5685,7 +5689,7 @@
         <v>-102.552784</v>
       </c>
       <c r="F134" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G134">
         <v>16.252461</v>
@@ -5697,12 +5701,12 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>362</v>
+      </c>
+      <c r="B135" t="s">
         <v>363</v>
-      </c>
-      <c r="B135" t="s">
-        <v>364</v>
       </c>
       <c r="C135" t="s">
         <v>23</v>
@@ -5714,7 +5718,7 @@
         <v>-106.346771</v>
       </c>
       <c r="F135" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G135">
         <v>45.364722</v>
@@ -5726,9 +5730,9 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B136" t="s">
         <v>100</v>
@@ -5755,9 +5759,9 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B137" t="s">
         <v>56</v>
@@ -5784,12 +5788,12 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>367</v>
+      </c>
+      <c r="B138" t="s">
         <v>368</v>
-      </c>
-      <c r="B138" t="s">
-        <v>369</v>
       </c>
       <c r="C138" t="s">
         <v>15</v>
@@ -5813,12 +5817,12 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>369</v>
+      </c>
+      <c r="B139" t="s">
         <v>370</v>
-      </c>
-      <c r="B139" t="s">
-        <v>371</v>
       </c>
       <c r="C139" t="s">
         <v>194</v>
@@ -5830,7 +5834,7 @@
         <v>113.92132700000001</v>
       </c>
       <c r="F139" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G139">
         <v>-6.3776000000000002</v>
@@ -5842,12 +5846,12 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>372</v>
+      </c>
+      <c r="B140" t="s">
         <v>373</v>
-      </c>
-      <c r="B140" t="s">
-        <v>374</v>
       </c>
       <c r="C140" t="s">
         <v>134</v>
@@ -5859,7 +5863,7 @@
         <v>-66.590148999999997</v>
       </c>
       <c r="F140" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G140">
         <v>18.116667</v>
@@ -5871,12 +5875,12 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>375</v>
+      </c>
+      <c r="B141" t="s">
         <v>376</v>
-      </c>
-      <c r="B141" t="s">
-        <v>377</v>
       </c>
       <c r="C141" t="s">
         <v>18</v>
@@ -5888,7 +5892,7 @@
         <v>45.038189000000003</v>
       </c>
       <c r="F141" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G141">
         <v>38.666666999999997</v>
@@ -5900,15 +5904,15 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>378</v>
+      </c>
+      <c r="B142" t="s">
         <v>379</v>
       </c>
-      <c r="B142" t="s">
-        <v>380</v>
-      </c>
       <c r="C142" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D142">
         <v>53.412909999999997</v>
@@ -5917,7 +5921,7 @@
         <v>-8.2438900000000004</v>
       </c>
       <c r="F142" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G142">
         <v>52.058799999999998</v>
@@ -5929,15 +5933,15 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>381</v>
+      </c>
+      <c r="B143" t="s">
         <v>382</v>
       </c>
-      <c r="B143" t="s">
-        <v>383</v>
-      </c>
       <c r="C143" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D143">
         <v>36.204824000000002</v>
@@ -5946,7 +5950,7 @@
         <v>138.25292400000001</v>
       </c>
       <c r="F143" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G143">
         <v>34.693888999999999</v>
@@ -5958,9 +5962,9 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B144" t="s">
         <v>140</v>
@@ -5987,12 +5991,12 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>385</v>
+      </c>
+      <c r="B145" t="s">
         <v>386</v>
-      </c>
-      <c r="B145" t="s">
-        <v>387</v>
       </c>
       <c r="C145" t="s">
         <v>129</v>
@@ -6004,7 +6008,7 @@
         <v>-51.925280000000001</v>
       </c>
       <c r="F145" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G145">
         <v>-22.543889</v>
@@ -6016,12 +6020,12 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>388</v>
+      </c>
+      <c r="B146" t="s">
         <v>389</v>
-      </c>
-      <c r="B146" t="s">
-        <v>390</v>
       </c>
       <c r="C146" t="s">
         <v>56</v>
@@ -6033,7 +6037,7 @@
         <v>105.31875599999999</v>
       </c>
       <c r="F146" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G146">
         <v>45.033332999999999</v>
@@ -6045,12 +6049,12 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B147" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C147" t="s">
         <v>23</v>
@@ -6062,7 +6066,7 @@
         <v>-106.346771</v>
       </c>
       <c r="F147" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G147">
         <v>49.899444000000003</v>
@@ -6074,9 +6078,9 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B148" t="s">
         <v>107</v>
@@ -6103,12 +6107,12 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>393</v>
+      </c>
+      <c r="B149" t="s">
         <v>394</v>
-      </c>
-      <c r="B149" t="s">
-        <v>395</v>
       </c>
       <c r="C149" t="s">
         <v>53</v>
@@ -6132,15 +6136,15 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>395</v>
+      </c>
+      <c r="B150" t="s">
         <v>396</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>397</v>
-      </c>
-      <c r="C150" t="s">
-        <v>398</v>
       </c>
       <c r="D150">
         <v>47.516230999999998</v>
@@ -6149,7 +6153,7 @@
         <v>14.550072</v>
       </c>
       <c r="F150" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G150">
         <v>48.208199999999998</v>
@@ -6161,12 +6165,12 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B151" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C151" t="s">
         <v>23</v>
@@ -6178,7 +6182,7 @@
         <v>-106.346771</v>
       </c>
       <c r="F151" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G151">
         <v>45.279600000000002</v>
@@ -6190,12 +6194,12 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B152" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C152" t="s">
         <v>23</v>
@@ -6207,7 +6211,7 @@
         <v>-106.346771</v>
       </c>
       <c r="F152" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G152">
         <v>45.279600000000002</v>
@@ -6219,9 +6223,9 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B153" t="s">
         <v>28</v>
@@ -6248,15 +6252,15 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>402</v>
+      </c>
+      <c r="B154" t="s">
         <v>403</v>
       </c>
-      <c r="B154" t="s">
-        <v>404</v>
-      </c>
       <c r="C154" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D154">
         <v>36.204824000000002</v>
@@ -6265,7 +6269,7 @@
         <v>138.25292400000001</v>
       </c>
       <c r="F154" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G154">
         <v>33.293500000000002</v>
@@ -6277,12 +6281,12 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>405</v>
+      </c>
+      <c r="B155" t="s">
         <v>406</v>
-      </c>
-      <c r="B155" t="s">
-        <v>407</v>
       </c>
       <c r="C155" t="s">
         <v>84</v>
@@ -6294,7 +6298,7 @@
         <v>104.195397</v>
       </c>
       <c r="F155" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G155">
         <v>23.132200000000001</v>
@@ -6306,15 +6310,15 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>408</v>
+      </c>
+      <c r="B156" t="s">
         <v>409</v>
       </c>
-      <c r="B156" t="s">
-        <v>410</v>
-      </c>
       <c r="C156" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D156">
         <v>38.963745000000003</v>
@@ -6323,7 +6327,7 @@
         <v>35.243321999999999</v>
       </c>
       <c r="F156" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G156">
         <v>38.666666999999997</v>
@@ -6335,15 +6339,15 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>410</v>
+      </c>
+      <c r="B157" t="s">
         <v>411</v>
       </c>
-      <c r="B157" t="s">
-        <v>412</v>
-      </c>
       <c r="C157" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D157">
         <v>15.870032</v>
@@ -6352,7 +6356,7 @@
         <v>100.992541</v>
       </c>
       <c r="F157" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G157">
         <v>13.7522</v>
@@ -6364,12 +6368,12 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>412</v>
+      </c>
+      <c r="B158" t="s">
         <v>413</v>
-      </c>
-      <c r="B158" t="s">
-        <v>414</v>
       </c>
       <c r="C158" t="s">
         <v>23</v>
@@ -6393,12 +6397,12 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>414</v>
+      </c>
+      <c r="B159" t="s">
         <v>415</v>
-      </c>
-      <c r="B159" t="s">
-        <v>416</v>
       </c>
       <c r="C159" t="s">
         <v>134</v>
@@ -6410,7 +6414,7 @@
         <v>-66.590148999999997</v>
       </c>
       <c r="F159" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G159">
         <v>18.036943999999998</v>
@@ -6422,12 +6426,12 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B160" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C160" t="s">
         <v>134</v>
@@ -6439,7 +6443,7 @@
         <v>-66.590148999999997</v>
       </c>
       <c r="F160" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G160">
         <v>18.451522000000001</v>
@@ -6451,12 +6455,12 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B161" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C161" t="s">
         <v>134</v>
@@ -6468,7 +6472,7 @@
         <v>-66.590148999999997</v>
       </c>
       <c r="F161" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G161">
         <v>18.036943999999998</v>
@@ -6480,12 +6484,12 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>419</v>
+      </c>
+      <c r="B162" t="s">
         <v>420</v>
-      </c>
-      <c r="B162" t="s">
-        <v>421</v>
       </c>
       <c r="C162" t="s">
         <v>134</v>
@@ -6497,7 +6501,7 @@
         <v>-66.590148999999997</v>
       </c>
       <c r="F162" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G162">
         <v>18.012628200000002</v>
@@ -6509,9 +6513,9 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B163" t="s">
         <v>83</v>
@@ -6538,12 +6542,12 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>423</v>
+      </c>
+      <c r="B164" t="s">
         <v>424</v>
-      </c>
-      <c r="B164" t="s">
-        <v>425</v>
       </c>
       <c r="C164" t="s">
         <v>84</v>
@@ -6555,7 +6559,7 @@
         <v>104.195397</v>
       </c>
       <c r="F164" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G164">
         <v>30.766667000000002</v>
@@ -6567,9 +6571,9 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B165" t="s">
         <v>100</v>
@@ -6596,12 +6600,12 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>427</v>
+      </c>
+      <c r="B166" t="s">
         <v>428</v>
-      </c>
-      <c r="B166" t="s">
-        <v>429</v>
       </c>
       <c r="C166" t="s">
         <v>23</v>
@@ -6613,7 +6617,7 @@
         <v>-106.346771</v>
       </c>
       <c r="F166" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G166">
         <v>45.589216899999997</v>
@@ -6625,12 +6629,12 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B167" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C167" t="s">
         <v>134</v>
@@ -6642,7 +6646,7 @@
         <v>-66.590148999999997</v>
       </c>
       <c r="F167" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G167">
         <v>18.012628200000002</v>
@@ -6654,12 +6658,12 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B168" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C168" t="s">
         <v>134</v>
@@ -6671,7 +6675,7 @@
         <v>-66.590148999999997</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G168">
         <v>18.201111000000001</v>
@@ -6683,9 +6687,9 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B169" t="s">
         <v>63</v>
@@ -6712,12 +6716,12 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>433</v>
+      </c>
+      <c r="B170" t="s">
         <v>434</v>
-      </c>
-      <c r="B170" t="s">
-        <v>435</v>
       </c>
       <c r="C170" t="s">
         <v>129</v>
@@ -6741,12 +6745,12 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B171" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C171" t="s">
         <v>134</v>
@@ -6758,7 +6762,7 @@
         <v>-66.590148999999997</v>
       </c>
       <c r="F171" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G171">
         <v>18.201111000000001</v>
@@ -6770,9 +6774,9 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B172" t="s">
         <v>128</v>
@@ -6799,15 +6803,15 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>437</v>
+      </c>
+      <c r="B173" t="s">
         <v>438</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>439</v>
-      </c>
-      <c r="C173" t="s">
-        <v>440</v>
       </c>
       <c r="D173">
         <v>50.503886999999999</v>
@@ -6816,7 +6820,7 @@
         <v>4.4699359999999997</v>
       </c>
       <c r="F173" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G173">
         <v>51.216999999999999</v>
@@ -6828,12 +6832,12 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>441</v>
+      </c>
+      <c r="B174" t="s">
         <v>442</v>
-      </c>
-      <c r="B174" t="s">
-        <v>443</v>
       </c>
       <c r="C174" t="s">
         <v>23</v>
@@ -6845,7 +6849,7 @@
         <v>-106.346771</v>
       </c>
       <c r="F174" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G174">
         <v>45.066667000000002</v>
@@ -6857,9 +6861,9 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B175" t="s">
         <v>103</v>
@@ -6886,12 +6890,12 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>445</v>
+      </c>
+      <c r="B176" t="s">
         <v>446</v>
-      </c>
-      <c r="B176" t="s">
-        <v>447</v>
       </c>
       <c r="C176" t="s">
         <v>23</v>
@@ -6903,7 +6907,7 @@
         <v>-106.346771</v>
       </c>
       <c r="F176" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G176">
         <v>46.612836999999999</v>
@@ -6915,12 +6919,12 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>448</v>
+      </c>
+      <c r="B177" t="s">
         <v>449</v>
-      </c>
-      <c r="B177" t="s">
-        <v>450</v>
       </c>
       <c r="C177" t="s">
         <v>129</v>
@@ -6932,7 +6936,7 @@
         <v>-51.925280000000001</v>
       </c>
       <c r="F177" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G177">
         <v>-21.520105399999998</v>
@@ -6944,12 +6948,12 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>451</v>
+      </c>
+      <c r="B178" t="s">
         <v>452</v>
-      </c>
-      <c r="B178" t="s">
-        <v>453</v>
       </c>
       <c r="C178" t="s">
         <v>60</v>
@@ -6961,7 +6965,7 @@
         <v>2.213749</v>
       </c>
       <c r="F178" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G178">
         <v>48.837499999999999</v>
@@ -6973,12 +6977,12 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>454</v>
+      </c>
+      <c r="B179" t="s">
         <v>455</v>
-      </c>
-      <c r="B179" t="s">
-        <v>456</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -6990,7 +6994,7 @@
         <v>18.643501000000001</v>
       </c>
       <c r="F179" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G179">
         <v>55.866667</v>
@@ -7002,9 +7006,9 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B180" t="s">
         <v>97</v>
@@ -7031,9 +7035,9 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B181" t="s">
         <v>100</v>
@@ -7060,15 +7064,15 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>459</v>
+      </c>
+      <c r="B182" t="s">
         <v>460</v>
       </c>
-      <c r="B182" t="s">
-        <v>461</v>
-      </c>
       <c r="C182" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D182">
         <v>36.204824000000002</v>
@@ -7077,7 +7081,7 @@
         <v>138.25292400000001</v>
       </c>
       <c r="F182" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G182">
         <v>35.180199999999999</v>
@@ -7089,9 +7093,9 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B183" t="s">
         <v>83</v>
@@ -7118,9 +7122,9 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B184" t="s">
         <v>97</v>
@@ -7147,49 +7151,67 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>464</v>
+      </c>
+      <c r="B185" t="s">
+        <v>205</v>
+      </c>
+      <c r="C185" t="s">
+        <v>206</v>
+      </c>
+      <c r="D185">
+        <v>15.783471</v>
+      </c>
+      <c r="E185">
+        <v>-90.230759000000006</v>
+      </c>
+      <c r="F185" t="s">
+        <v>207</v>
+      </c>
+      <c r="G185">
+        <v>14.613333000000001</v>
+      </c>
+      <c r="H185">
+        <v>-90.535278000000005</v>
+      </c>
+      <c r="I185">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>465</v>
       </c>
-      <c r="C185" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
-      <c r="A186" t="s">
+      <c r="B186" t="s">
         <v>466</v>
       </c>
-      <c r="B186" t="s">
-        <v>205</v>
-      </c>
       <c r="C186" t="s">
-        <v>206</v>
+        <v>84</v>
       </c>
       <c r="D186">
-        <v>15.783471</v>
+        <v>35.861660000000001</v>
       </c>
       <c r="E186">
-        <v>-90.230759000000006</v>
+        <v>104.195397</v>
       </c>
       <c r="F186" t="s">
-        <v>207</v>
+        <v>467</v>
       </c>
       <c r="G186">
-        <v>14.613333000000001</v>
+        <v>39.6</v>
       </c>
       <c r="H186">
-        <v>-90.535278000000005</v>
-      </c>
-      <c r="I186">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>118.17611100000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B187" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C187" t="s">
         <v>84</v>
@@ -7201,21 +7223,24 @@
         <v>104.195397</v>
       </c>
       <c r="F187" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G187">
-        <v>39.6</v>
+        <v>30.25</v>
       </c>
       <c r="H187">
-        <v>118.17611100000001</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>120.166667</v>
+      </c>
+      <c r="I187">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B188" t="s">
-        <v>471</v>
+        <v>100</v>
       </c>
       <c r="C188" t="s">
         <v>84</v>
@@ -7227,77 +7252,49 @@
         <v>104.195397</v>
       </c>
       <c r="F188" t="s">
+        <v>101</v>
+      </c>
+      <c r="G188">
+        <v>53.456200000000003</v>
+      </c>
+      <c r="H188">
+        <v>-7.4934000000000003</v>
+      </c>
+      <c r="I188">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>472</v>
       </c>
-      <c r="G188">
-        <v>30.25</v>
-      </c>
-      <c r="H188">
-        <v>120.166667</v>
-      </c>
-      <c r="I188">
-        <v>1914</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
-      <c r="A189" t="s">
+      <c r="B189" t="s">
         <v>473</v>
       </c>
-      <c r="B189" t="s">
-        <v>100</v>
-      </c>
       <c r="C189" t="s">
-        <v>84</v>
+        <v>474</v>
       </c>
       <c r="D189">
-        <v>35.861660000000001</v>
+        <v>12.879721</v>
       </c>
       <c r="E189">
-        <v>104.195397</v>
+        <v>121.774017</v>
       </c>
       <c r="F189" t="s">
-        <v>101</v>
+        <v>475</v>
       </c>
       <c r="G189">
-        <v>53.456200000000003</v>
+        <v>14.582259199999999</v>
       </c>
       <c r="H189">
-        <v>-7.4934000000000003</v>
+        <v>120.9748038</v>
       </c>
       <c r="I189">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
-      <c r="A190" t="s">
-        <v>474</v>
-      </c>
-      <c r="B190" t="s">
-        <v>475</v>
-      </c>
-      <c r="C190" t="s">
-        <v>476</v>
-      </c>
-      <c r="D190">
-        <v>12.879721</v>
-      </c>
-      <c r="E190">
-        <v>121.774017</v>
-      </c>
-      <c r="F190" t="s">
-        <v>477</v>
-      </c>
-      <c r="G190">
-        <v>14.582259199999999</v>
-      </c>
-      <c r="H190">
-        <v>120.9748038</v>
-      </c>
-      <c r="I190">
         <v>1943</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I189"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>